--- a/BackTest/2019-10-06 BackTest BAT.xlsx
+++ b/BackTest/2019-10-06 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>9</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>25</v>
+      </c>
       <c r="L12" t="n">
         <v>242</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>242</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L14" t="n">
         <v>242</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>14</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L15" t="n">
         <v>241.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>241.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-50</v>
+      </c>
       <c r="L17" t="n">
         <v>241.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>241.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>15</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>240.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-71.42857142857143</v>
+      </c>
       <c r="L20" t="n">
         <v>240.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>18</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>240.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>18</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>239.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L23" t="n">
         <v>239.5</v>
@@ -1466,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>239.3</v>
@@ -1515,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>239.2</v>
@@ -1564,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L26" t="n">
         <v>239.3</v>
@@ -1613,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L27" t="n">
         <v>239.4</v>
@@ -1662,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="K28" t="n">
-        <v>-30</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L28" t="n">
         <v>239.2</v>
@@ -1711,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>-36.36363636363637</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L29" t="n">
         <v>238.8</v>
@@ -1760,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="K30" t="n">
-        <v>-36.36363636363637</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L30" t="n">
         <v>238.5</v>
@@ -1809,7 +1831,7 @@
         <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>-39.1304347826087</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>237.9</v>
@@ -1860,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="K32" t="n">
-        <v>-39.1304347826087</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>237.3</v>
@@ -1911,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="K33" t="n">
-        <v>-36.36363636363637</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L33" t="n">
         <v>236.8</v>
@@ -1962,7 +1984,7 @@
         <v>34</v>
       </c>
       <c r="K34" t="n">
-        <v>-36.36363636363637</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L34" t="n">
         <v>236.2</v>
@@ -2013,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="K35" t="n">
-        <v>-23.80952380952381</v>
+        <v>-50</v>
       </c>
       <c r="L35" t="n">
         <v>235.8</v>
@@ -2064,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="K36" t="n">
-        <v>-27.27272727272727</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L36" t="n">
         <v>235.1</v>
@@ -2115,7 +2137,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="n">
-        <v>-21.73913043478261</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L37" t="n">
         <v>234.5</v>
@@ -2166,7 +2188,7 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>234.1</v>
@@ -2217,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="K39" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>233.9</v>
@@ -2268,7 +2290,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="n">
-        <v>-30.43478260869566</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L40" t="n">
         <v>233.5</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>232.9</v>
@@ -2421,7 +2443,7 @@
         <v>42</v>
       </c>
       <c r="K43" t="n">
-        <v>-18.18181818181818</v>
+        <v>25</v>
       </c>
       <c r="L43" t="n">
         <v>233</v>
@@ -2472,7 +2494,7 @@
         <v>43</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>233.1</v>
@@ -2523,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>233.3</v>
@@ -2574,7 +2596,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>233.7</v>
@@ -2625,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="K47" t="n">
-        <v>-8.333333333333332</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L47" t="n">
         <v>234.1</v>
@@ -2676,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="K48" t="n">
-        <v>4.761904761904762</v>
+        <v>75</v>
       </c>
       <c r="L48" t="n">
         <v>234.6</v>
@@ -2727,7 +2749,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="n">
-        <v>15.78947368421053</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L49" t="n">
         <v>235.1</v>
@@ -2778,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="n">
-        <v>5.88235294117647</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L50" t="n">
         <v>235.6</v>
@@ -2829,7 +2851,7 @@
         <v>48</v>
       </c>
       <c r="K51" t="n">
-        <v>12.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L51" t="n">
         <v>236.1</v>
@@ -2880,7 +2902,7 @@
         <v>48</v>
       </c>
       <c r="K52" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>236.6</v>
@@ -2931,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L53" t="n">
         <v>236.6</v>
@@ -2982,7 +3004,7 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>236.7</v>
@@ -3033,7 +3055,7 @@
         <v>51</v>
       </c>
       <c r="K55" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>236.7</v>
@@ -3084,7 +3106,7 @@
         <v>52</v>
       </c>
       <c r="K56" t="n">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="L56" t="n">
         <v>236.7</v>
@@ -3135,7 +3157,7 @@
         <v>53</v>
       </c>
       <c r="K57" t="n">
-        <v>12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>236.5</v>
@@ -3186,7 +3208,7 @@
         <v>53</v>
       </c>
       <c r="K58" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>236.3</v>
@@ -3237,7 +3259,7 @@
         <v>53</v>
       </c>
       <c r="K59" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L59" t="n">
         <v>236.2</v>
@@ -3288,7 +3310,7 @@
         <v>53</v>
       </c>
       <c r="K60" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L60" t="n">
         <v>236.1</v>
@@ -3339,7 +3361,7 @@
         <v>54</v>
       </c>
       <c r="K61" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>236.1</v>
@@ -3390,7 +3412,7 @@
         <v>55</v>
       </c>
       <c r="K62" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L62" t="n">
         <v>236</v>
@@ -3492,7 +3514,7 @@
         <v>56</v>
       </c>
       <c r="K64" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L64" t="n">
         <v>236</v>
@@ -3543,7 +3565,7 @@
         <v>56</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L65" t="n">
         <v>235.9</v>
@@ -3594,7 +3616,7 @@
         <v>57</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>235.8</v>
@@ -3696,7 +3718,7 @@
         <v>61</v>
       </c>
       <c r="K68" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L68" t="n">
         <v>235.2</v>
@@ -3747,7 +3769,7 @@
         <v>62</v>
       </c>
       <c r="K69" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>234.9</v>
@@ -3798,7 +3820,7 @@
         <v>64</v>
       </c>
       <c r="K70" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L70" t="n">
         <v>234.4</v>
@@ -3849,7 +3871,7 @@
         <v>66</v>
       </c>
       <c r="K71" t="n">
-        <v>-44.44444444444444</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L71" t="n">
         <v>233.6</v>
@@ -3900,7 +3922,7 @@
         <v>67</v>
       </c>
       <c r="K72" t="n">
-        <v>-47.36842105263158</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L72" t="n">
         <v>232.8</v>
@@ -3951,7 +3973,7 @@
         <v>70</v>
       </c>
       <c r="K73" t="n">
-        <v>-20</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>232.4</v>
@@ -4002,7 +4024,7 @@
         <v>71</v>
       </c>
       <c r="K74" t="n">
-        <v>-23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>231.9</v>
@@ -4053,7 +4075,7 @@
         <v>73</v>
       </c>
       <c r="K75" t="n">
-        <v>-18.18181818181818</v>
+        <v>-25</v>
       </c>
       <c r="L75" t="n">
         <v>231.6</v>
@@ -4104,7 +4126,7 @@
         <v>74</v>
       </c>
       <c r="K76" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>231.1</v>

--- a/BackTest/2019-10-06 BackTest BAT.xlsx
+++ b/BackTest/2019-10-06 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>99499.39730820124</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>99501.39230820123</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="J3" t="n">
         <v>237</v>
       </c>
-      <c r="K3" t="n">
-        <v>237</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="J4" t="n">
-        <v>238</v>
-      </c>
-      <c r="K4" t="n">
         <v>237</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="J5" t="n">
-        <v>239</v>
-      </c>
-      <c r="K5" t="n">
         <v>237</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,15 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>239</v>
-      </c>
-      <c r="K6" t="n">
-        <v>239</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +636,15 @@
         <v>110450.9480082012</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>239</v>
-      </c>
-      <c r="K7" t="n">
-        <v>239</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>239</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -856,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -892,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -964,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1036,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1108,16 +1034,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,16 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1180,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1216,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1252,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1288,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1324,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1396,16 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1432,16 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1468,16 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1504,16 +1397,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1540,16 +1430,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1576,16 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1612,16 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,16 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1684,16 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,16 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1756,16 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1792,16 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1828,16 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1864,16 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1900,16 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1936,16 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1972,16 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2008,16 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2044,16 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2080,16 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2116,16 +1958,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,16 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2188,16 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2258,18 +2088,15 @@
         <v>251179.8956691851</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2294,18 +2121,15 @@
         <v>249311.0425691851</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2330,18 +2154,15 @@
         <v>254465.4506691851</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2366,18 +2187,15 @@
         <v>254460.046669185</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2402,18 +2220,15 @@
         <v>254466.427169185</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2440,16 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2476,16 +2288,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2512,16 +2321,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2546,18 +2352,15 @@
         <v>247938.466169185</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2582,18 +2385,15 @@
         <v>228743.923769185</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2618,18 +2418,15 @@
         <v>228692.578169185</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2654,18 +2451,15 @@
         <v>228634.952769185</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2690,18 +2484,15 @@
         <v>227189.300769185</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2728,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2764,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2800,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2836,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2872,16 +2651,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2908,16 +2684,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2944,16 +2717,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2978,18 +2748,15 @@
         <v>228847.238169185</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,18 +2781,15 @@
         <v>227745.238169185</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3050,18 +2814,15 @@
         <v>227720.958369185</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3088,16 +2849,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3124,16 +2882,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3160,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3196,16 +2948,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3230,18 +2979,15 @@
         <v>224518.499869185</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3268,16 +3014,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3304,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3340,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3376,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3412,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3448,16 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3484,16 +3212,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3520,16 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3556,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3590,18 +3309,15 @@
         <v>210322.072369185</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3628,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3664,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3700,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3736,16 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3772,16 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3806,18 +3507,15 @@
         <v>191280.081169185</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3842,18 +3540,15 @@
         <v>189316.214869185</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3878,18 +3573,15 @@
         <v>189319.437069185</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3916,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3952,16 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3988,16 +3674,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4024,16 +3707,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4060,16 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4096,16 +3773,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4132,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,16 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4204,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4240,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4276,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4312,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4348,16 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4384,16 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4420,16 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4456,16 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4492,16 +4136,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4528,16 +4169,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4564,16 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4600,16 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4636,16 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4672,16 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4708,16 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4744,16 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4780,16 +4400,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4816,16 +4433,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4852,16 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4888,18 +4499,15 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest BAT.xlsx
+++ b/BackTest/2019-10-06 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>99499.39730820124</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>99501.39230820123</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>237</v>
@@ -521,7 +521,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>238</v>
@@ -562,7 +562,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>239</v>
@@ -603,10 +603,14 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>239</v>
+      </c>
+      <c r="J6" t="n">
+        <v>239</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -639,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>239</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -672,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>239</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2104,7 @@
         <v>251179.8956691851</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2121,7 +2137,7 @@
         <v>249311.0425691851</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2154,7 +2170,7 @@
         <v>254465.4506691851</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2187,7 +2203,7 @@
         <v>254460.046669185</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2220,7 +2236,7 @@
         <v>254466.427169185</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2253,7 +2269,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2286,7 +2302,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2319,7 +2335,7 @@
         <v>253092.874269185</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2352,7 +2368,7 @@
         <v>247938.466169185</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2385,7 +2401,7 @@
         <v>228743.923769185</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2418,7 +2434,7 @@
         <v>228692.578169185</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2451,7 +2467,7 @@
         <v>228634.952769185</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2484,7 +2500,7 @@
         <v>227189.300769185</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2517,7 +2533,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2550,7 +2566,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2583,7 +2599,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2616,7 +2632,7 @@
         <v>226390.300769185</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2649,7 +2665,7 @@
         <v>226354.066769185</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2682,7 +2698,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2715,7 +2731,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2748,7 +2764,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2781,7 +2797,7 @@
         <v>227745.238169185</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2814,7 +2830,7 @@
         <v>227720.958369185</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2847,7 +2863,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2880,7 +2896,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2913,7 +2929,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2946,7 +2962,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2979,7 +2995,7 @@
         <v>224518.499869185</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3309,7 +3325,7 @@
         <v>210322.072369185</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3507,7 +3523,7 @@
         <v>191280.081169185</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3540,7 +3556,7 @@
         <v>189316.214869185</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3573,7 +3589,7 @@
         <v>189319.437069185</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3606,7 +3622,7 @@
         <v>188574.110369185</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3639,7 +3655,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3672,7 +3688,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3705,7 +3721,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4508,6 +4524,6 @@
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest BAT.xlsx
+++ b/BackTest/2019-10-06 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>99499.39730820124</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>99501.39230820123</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>237</v>
-      </c>
-      <c r="J3" t="n">
-        <v>237</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>238</v>
-      </c>
-      <c r="J4" t="n">
-        <v>237</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>239</v>
-      </c>
-      <c r="J5" t="n">
-        <v>237</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>239</v>
-      </c>
-      <c r="J6" t="n">
-        <v>239</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>239</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>239</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1444,7 +1408,7 @@
         <v>200434.4888691851</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1543,7 +1507,7 @@
         <v>205276.7769691851</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1642,7 +1606,7 @@
         <v>224556.6804691851</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1675,7 +1639,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1708,7 +1672,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1741,7 +1705,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1774,7 +1738,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1807,7 +1771,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1840,7 +1804,7 @@
         <v>239166.7279691851</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1873,7 +1837,7 @@
         <v>240934.8403691851</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2269,7 +2233,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2302,7 +2266,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2299,7 @@
         <v>253092.874269185</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2368,7 +2332,7 @@
         <v>247938.466169185</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2401,7 +2365,7 @@
         <v>228743.923769185</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2434,7 +2398,7 @@
         <v>228692.578169185</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2467,7 +2431,7 @@
         <v>228634.952769185</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2500,7 +2464,7 @@
         <v>227189.300769185</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2533,7 +2497,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2566,7 +2530,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2599,7 +2563,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2632,7 +2596,7 @@
         <v>226390.300769185</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2665,7 +2629,7 @@
         <v>226354.066769185</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2698,7 +2662,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2731,7 +2695,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2764,7 +2728,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2797,7 +2761,7 @@
         <v>227745.238169185</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2830,7 +2794,7 @@
         <v>227720.958369185</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2863,7 +2827,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2896,7 +2860,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2929,7 +2893,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2962,7 +2926,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3061,7 +3025,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3490,7 +3454,7 @@
         <v>191229.752169185</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3589,7 +3553,7 @@
         <v>189319.437069185</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3622,7 +3586,7 @@
         <v>188574.110369185</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3655,7 +3619,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3688,7 +3652,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3721,7 +3685,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,11 +3718,17 @@
         <v>185853.146569185</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>232</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +3757,17 @@
         <v>188672.516069185</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>232</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +3796,17 @@
         <v>188659.944169185</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>235</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3835,17 @@
         <v>188796.088269185</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>234</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3874,17 @@
         <v>206008.904669185</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>236</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +3917,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3956,7 +3954,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3989,7 +3991,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4022,7 +4028,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4055,7 +4065,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4088,7 +4102,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4121,7 +4139,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4150,14 +4172,16 @@
         <v>202497.825569185</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4183,7 +4207,7 @@
         <v>205894.825569185</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4216,7 +4240,7 @@
         <v>207257.186169185</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4249,7 +4273,7 @@
         <v>205127.905869185</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4381,11 +4405,17 @@
         <v>205507.905869185</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>236</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4444,17 @@
         <v>204704.880369185</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>237</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4451,7 +4487,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4484,7 +4524,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4513,17 +4557,23 @@
         <v>204682.667569185</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>235</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest BAT.xlsx
+++ b/BackTest/2019-10-06 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>99499.39730820124</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>99501.39230820123</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>237</v>
+      </c>
+      <c r="J3" t="n">
+        <v>237</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,17 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>237</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>237</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +599,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1408,7 +1424,7 @@
         <v>200434.4888691851</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1523,7 @@
         <v>205276.7769691851</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1622,7 @@
         <v>224556.6804691851</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1655,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1688,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1721,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1754,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1787,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>239166.7279691851</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1853,7 @@
         <v>240934.8403691851</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1919,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>247065.7307691851</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>251522.4595691851</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>251179.8956691851</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>249311.0425691851</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>254465.4506691851</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>254460.046669185</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2216,7 @@
         <v>254466.427169185</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2249,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2282,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2315,7 @@
         <v>253092.874269185</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2348,7 @@
         <v>247938.466169185</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2381,7 @@
         <v>228743.923769185</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2414,7 @@
         <v>228692.578169185</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2447,7 @@
         <v>228634.952769185</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2612,7 @@
         <v>226390.300769185</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2678,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2744,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2777,7 @@
         <v>227745.238169185</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2810,7 @@
         <v>227720.958369185</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>224518.499869185</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3107,7 @@
         <v>225616.019469185</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3454,7 +3470,7 @@
         <v>191229.752169185</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3503,7 @@
         <v>191280.081169185</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3536,7 @@
         <v>189316.214869185</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3718,17 +3734,11 @@
         <v>185853.146569185</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3757,17 +3767,11 @@
         <v>188672.516069185</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3796,17 +3800,11 @@
         <v>188659.944169185</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3835,17 +3833,11 @@
         <v>188796.088269185</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3874,17 +3866,11 @@
         <v>206008.904669185</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3917,11 +3903,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +3936,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3991,11 +3969,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4028,11 +4002,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4065,11 +4035,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4102,11 +4068,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4139,11 +4101,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4172,16 +4130,14 @@
         <v>202497.825569185</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4207,7 +4163,7 @@
         <v>205894.825569185</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4240,7 +4196,7 @@
         <v>207257.186169185</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4273,7 +4229,7 @@
         <v>205127.905869185</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4405,17 +4361,11 @@
         <v>205507.905869185</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4444,17 +4394,11 @@
         <v>204704.880369185</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4487,11 +4431,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4524,11 +4464,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4557,17 +4493,11 @@
         <v>204682.667569185</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
